--- a/PIONEER-ROBOT/pioneer_main/data/wolf_walk/0/wolf_data_0.xlsx
+++ b/PIONEER-ROBOT/pioneer_main/data/wolf_walk/0/wolf_data_0.xlsx
@@ -365,7 +365,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -374,7 +374,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col customWidth="1" max="1" min="1" width="5.7109375"/>
-    <col customWidth="1" max="12" min="2" width="15.7109375"/>
+    <col customWidth="1" max="14" min="2" width="15.7109375"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -438,42 +438,58 @@
           <t>tripod_frame</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>des_roll</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>des_pitch</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>179.2606905352588</v>
+        <v>179.7747125546609</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>0.5779078633091186</v>
+        <v>0.2849634610521907</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>93.82262043933154</v>
+        <v>72.58031156139084</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>11.29966141360572</v>
+        <v>8.040924502909649</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>-11.77164699535054</v>
+        <v>-10.21011773171844</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>-0.2685528963647897</v>
+        <v>0.01588654991311846</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>8.12276261660354</v>
+        <v>5.587755887905059</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>-8.909667389117729</v>
+        <v>-5.703155457395973</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>-4.898351507865025</v>
+        <v>-3.959546607579072</v>
       </c>
       <c r="K2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="L2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -482,37 +498,43 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>179.2572478185884</v>
+        <v>179.8072591254245</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>0.5936074811775702</v>
+        <v>0.2828150983590952</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>93.8138422635334</v>
+        <v>72.58370559171121</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>11.22374140640963</v>
+        <v>8.703393899215857</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>-12.02630788377681</v>
+        <v>-9.700934691010787</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>-0.418410737310061</v>
+        <v>-0.154029322461401</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>8.113784360767768</v>
+        <v>6.065190938608094</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>-9.089514188712714</v>
+        <v>-5.656415508848331</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>-5.025935998405889</v>
+        <v>-3.761725123502811</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>6</v>
+        <v>36</v>
+      </c>
+      <c r="M3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -520,37 +542,43 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>179.2657275915459</v>
+        <v>179.7556896668333</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>0.6922584414702008</v>
+        <v>0.2687462695447436</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>93.83328558718262</v>
+        <v>72.58934129289185</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>11.30993318218334</v>
+        <v>8.761703394958785</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>-11.96274121169613</v>
+        <v>-10.28474694873777</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>-0.4769636656671831</v>
+        <v>0.01046040656581169</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>7.919366868898166</v>
+        <v>5.68291032829828</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>-8.594271418753854</v>
+        <v>-5.153432243488671</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>-5.065005518465137</v>
+        <v>-4.131748792839289</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>54</v>
+        <v>91</v>
+      </c>
+      <c r="M4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -558,37 +586,43 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>179.7704550518013</v>
+        <v>177.4314439588805</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>0.8891354487988652</v>
+        <v>0.003811771847416971</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>93.9723116283068</v>
+        <v>74.56003231643736</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>7.938095399282668</v>
+        <v>20.20305809217986</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>-8.529375265667099</v>
+        <v>1.147597022742128</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>-0.07008491861936589</v>
+        <v>4.962870155843515</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>16.16950401187332</v>
+        <v>0.09449116091428693</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>-15.5997690271126</v>
+        <v>-0.1650391568123765</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>-4.712826592545849</v>
+        <v>-5.15788977962119</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>102</v>
+        <v>142</v>
+      </c>
+      <c r="M5" s="2" t="n">
+        <v>0.007727641146630049</v>
+      </c>
+      <c r="N5" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -596,37 +630,43 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>-179.7669056988872</v>
+        <v>177.7499633653399</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>1.369993290261848</v>
+        <v>-0.8074205956341277</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>93.20741125686989</v>
+        <v>72.87460455097067</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-11.212613590997</v>
+        <v>7.427896865867133</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>-22.71926703127826</v>
+        <v>11.14176319058305</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>-3.746016918789523</v>
+        <v>-0.5147530275105493</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.5151142364959305</v>
+        <v>13.04569325726862</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>-0.6199166774242242</v>
+        <v>7.951830254644205</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>-5.180925831155784</v>
+        <v>-5.848922775238295</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>151</v>
+        <v>193</v>
+      </c>
+      <c r="M6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -634,37 +674,43 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>176.46351253787</v>
+        <v>179.168871380557</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>-0.1699161850371819</v>
+        <v>0.3067937470283689</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>90.86946416978186</v>
+        <v>72.79303003804647</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>20.95468976722984</v>
+        <v>4.742516076496607</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>-1.796834809030372</v>
+        <v>-16.10899417788065</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>2.683634654399565</v>
+        <v>0.2994992846681067</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.2220511429276571</v>
+        <v>3.828282566128353</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>-0.3367903786049514</v>
+        <v>-7.587600641167075</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>-5.653036549974114</v>
+        <v>-3.856305585566982</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>199</v>
+        <v>244</v>
+      </c>
+      <c r="M7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -672,37 +718,43 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>179.3045914950267</v>
+        <v>179.0517121595603</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>0.263036856126014</v>
+        <v>0.1362508621386504</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>91.41790767154669</v>
+        <v>72.85275293211704</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>7.195267211766398</v>
+        <v>9.713637533418478</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>2.026005061058837</v>
+        <v>-10.4706539869583</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>0.2733765395336889</v>
+        <v>0.2574687678390375</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>11.37967746058671</v>
+        <v>6.807957244011856</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>-15.19804461841672</v>
+        <v>-8.180752960880596</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>-3.282682564420176</v>
+        <v>-3.763831064214318</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>250</v>
+        <v>296</v>
+      </c>
+      <c r="M8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -710,37 +762,43 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>179.1439361130049</v>
+        <v>179.09115759439</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>0.2399710467869226</v>
+        <v>0.1833029656797421</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>91.47821346648595</v>
+        <v>72.83190063348856</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>6.548326245379328</v>
+        <v>9.130895242287824</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>-9.251356301681534</v>
+        <v>-11.27828321964529</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>0.6035540588887783</v>
+        <v>-0.05783495915102171</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>8.960740104768858</v>
+        <v>6.879891617919117</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>-11.15470452917014</v>
+        <v>-8.621404273683776</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>-3.948756602196049</v>
+        <v>-3.916362484043157</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>298</v>
+        <v>347</v>
+      </c>
+      <c r="M9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -748,37 +806,43 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>179.1294022637083</v>
+        <v>179.210005386583</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>0.2341699901671896</v>
+        <v>0.2119932033636351</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>91.47439278266384</v>
+        <v>72.87409707678115</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>5.985544315872708</v>
+        <v>8.841012599819244</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>-9.379369496556709</v>
+        <v>-9.772464286986725</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>0.634616766052546</v>
+        <v>0.1253842103474488</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>9.06849389870341</v>
+        <v>6.453355030807622</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>-10.92270002761665</v>
+        <v>-8.573471315065989</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>-3.730017524154687</v>
+        <v>-3.623243619839951</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>347</v>
+        <v>395</v>
+      </c>
+      <c r="M10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -786,37 +850,43 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>179.0793645959567</v>
+        <v>179.0757235670611</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>0.2925420613970307</v>
+        <v>0.216220932151444</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>91.47829481627201</v>
+        <v>72.90126704586656</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>7.218229168956212</v>
+        <v>9.690794335027746</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>-9.989868311281713</v>
+        <v>-10.26953387276927</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>0.4570281556855748</v>
+        <v>0.2423349361880975</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>8.74446874540887</v>
+        <v>6.918124238028038</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>-11.03332106413326</v>
+        <v>-8.455249406503635</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>-4.017916890535737</v>
+        <v>-3.70094826629275</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>395</v>
+        <v>449</v>
+      </c>
+      <c r="M11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -824,37 +894,219 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>179.0601831424573</v>
+        <v>179.2356617900096</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>0.3110576714928528</v>
+        <v>0.2009595177263117</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>91.47881270597532</v>
+        <v>72.9075233191442</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>7.886655562435916</v>
+        <v>8.667332651070085</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>-9.048661268057367</v>
+        <v>-10.34983075701589</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>0.5725647166265795</v>
+        <v>0.1944413762848955</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>9.215357005966112</v>
+        <v>6.520201281230771</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>-11.4515997468002</v>
+        <v>-8.512976291729025</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>-3.765390503402411</v>
+        <v>-3.488698932068205</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>443</v>
+        <v>498</v>
+      </c>
+      <c r="M12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>179.3043205969451</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>0.1810811367851893</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>72.93912718883314</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>8.9378312662362</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>-9.332657591322988</v>
+      </c>
+      <c r="G13" s="2" t="n">
+        <v>0.3563069561520322</v>
+      </c>
+      <c r="H13" s="2" t="n">
+        <v>6.637892020451534</v>
+      </c>
+      <c r="I13" s="2" t="n">
+        <v>-8.700063270093105</v>
+      </c>
+      <c r="J13" s="2" t="n">
+        <v>-3.377549010493843</v>
+      </c>
+      <c r="K13" s="2" t="n">
+        <v>275</v>
+      </c>
+      <c r="L13" s="2" t="n">
+        <v>549</v>
+      </c>
+      <c r="M13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>179.2834350899931</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>0.2193579520712313</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>72.92504647328481</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>8.647974064110629</v>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>-10.57995059380383</v>
+      </c>
+      <c r="G14" s="2" t="n">
+        <v>-0.03785808618265154</v>
+      </c>
+      <c r="H14" s="2" t="n">
+        <v>6.940771849604887</v>
+      </c>
+      <c r="I14" s="2" t="n">
+        <v>-8.58628823267529</v>
+      </c>
+      <c r="J14" s="2" t="n">
+        <v>-3.776087985955013</v>
+      </c>
+      <c r="K14" s="2" t="n">
+        <v>300</v>
+      </c>
+      <c r="L14" s="2" t="n">
+        <v>600</v>
+      </c>
+      <c r="M14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>179.1906928810893</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>0.243064977824574</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>72.90950787123317</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>10.02234268439755</v>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>-10.57470332463764</v>
+      </c>
+      <c r="G15" s="2" t="n">
+        <v>0.4030820965466836</v>
+      </c>
+      <c r="H15" s="2" t="n">
+        <v>6.817228041108177</v>
+      </c>
+      <c r="I15" s="2" t="n">
+        <v>-8.769167568074197</v>
+      </c>
+      <c r="J15" s="2" t="n">
+        <v>-3.465842532241655</v>
+      </c>
+      <c r="K15" s="2" t="n">
+        <v>326</v>
+      </c>
+      <c r="L15" s="2" t="n">
+        <v>651</v>
+      </c>
+      <c r="M15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>179.2099151702992</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>0.245936382034201</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>72.88839967706235</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>9.456906211084702</v>
+      </c>
+      <c r="F16" s="2" t="n">
+        <v>-10.11088215345345</v>
+      </c>
+      <c r="G16" s="2" t="n">
+        <v>0.3760311629972491</v>
+      </c>
+      <c r="H16" s="2" t="n">
+        <v>7.048595562822864</v>
+      </c>
+      <c r="I16" s="2" t="n">
+        <v>-8.559132687321584</v>
+      </c>
+      <c r="J16" s="2" t="n">
+        <v>-3.488566900973936</v>
+      </c>
+      <c r="K16" s="2" t="n">
+        <v>351</v>
+      </c>
+      <c r="L16" s="2" t="n">
+        <v>703</v>
+      </c>
+      <c r="M16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
